--- a/Fig5/A_cellline_mutscape/PDC_cellline_4_mutations.xlsx
+++ b/Fig5/A_cellline_mutscape/PDC_cellline_4_mutations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanghaixia/Desktop/glioma_prognosis_method_multi-omics/Multi_omics_SP_related/sp_PDC_1114_2023_related/PDC_plot_somatic_mutation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanghaixia/Dropbox/SPproject_code/Fig5/A_cellline_mutscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C57B4A-9D76-6449-8D2C-E54624CE9B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CCDF7-E69D-5A4C-8193-C40C5656DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="3860" windowWidth="27640" windowHeight="16940" xr2:uid="{DE045DDB-BEAE-204E-BDB9-0CD1804605FB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="145">
   <si>
     <t>mutation</t>
   </si>
@@ -464,32 +464,48 @@
   </si>
   <si>
     <t>789651-ZZB</t>
+  </si>
+  <si>
+    <t>SPBC010_cl1</t>
+  </si>
+  <si>
+    <t>SPBC010_T</t>
+  </si>
+  <si>
+    <t>stop_gained</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,9 +629,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,9 +649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,7 +689,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -777,7 +795,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -919,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,15 +945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB89C21-F627-8445-9691-6017E9AC00DA}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,8 +984,14 @@
       <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -998,8 +1022,14 @@
       <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1012,8 +1042,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1058,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1040,8 +1074,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +1090,14 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
+      <c r="K6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1124,10 @@
       <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1100,8 +1144,14 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
+      <c r="K8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1114,8 +1164,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1180,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1142,8 +1196,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1212,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1174,8 +1232,14 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="K13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1188,8 +1252,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1202,9 +1269,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
@@ -1368,7 +1435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A2" s="4">
         <v>179186</v>
       </c>
@@ -1532,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A3" s="4">
         <v>179186</v>
       </c>
@@ -1696,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A4" s="4">
         <v>182545</v>
       </c>
@@ -1860,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A5" s="4">
         <v>182545</v>
       </c>
@@ -2024,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A6" s="4">
         <v>182545</v>
       </c>
@@ -2188,7 +2255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="4" customFormat="1" ht="41" customHeight="1">
       <c r="A7" s="4">
         <v>182545</v>
       </c>
@@ -2353,6 +2420,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2365,9 +2433,9 @@
       <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -2522,7 +2590,7 @@
         <v>0.676508</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" s="14" t="s">
         <v>124</v>
       </c>
@@ -2677,7 +2745,7 @@
         <v>0.62201600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -2832,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -2987,7 +3055,7 @@
         <v>0.54928299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51">
       <c r="A5" s="18" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +3210,7 @@
         <v>0.68643399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" ht="61" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>130</v>
       </c>
@@ -3297,7 +3365,7 @@
         <v>0.61906099999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51">
       <c r="A7" s="21" t="s">
         <v>141</v>
       </c>
@@ -3452,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51">
       <c r="A8" s="22" t="s">
         <v>141</v>
       </c>
@@ -3607,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51">
       <c r="A9" s="22" t="s">
         <v>141</v>
       </c>
@@ -3762,7 +3830,7 @@
         <v>0.69800700000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51">
       <c r="A10" s="22" t="s">
         <v>141</v>
       </c>
@@ -3918,6 +3986,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>